--- a/Proyectos/2016/1/P1466 - CNOM, Juan Carlos Ramirez_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1466 - CNOM, Juan Carlos Ramirez_AG/Planeación/Plan_de_proyecto.xlsx
@@ -4749,11 +4749,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4763,6 +4758,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
